--- a/Enova/windows.xlsx
+++ b/Enova/windows.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alfalavalonline-my.sharepoint.com/personal/kska_framo_no/Documents/Documents/Github/klubben/Enova/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="8_{9E600BCF-DA75-4632-9128-AE3621357B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C958A436-AE08-4756-9F44-B0CEA8033BD2}"/>
+  <xr:revisionPtr revIDLastSave="193" documentId="8_{9E600BCF-DA75-4632-9128-AE3621357B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EE14218-CA40-46D9-BF79-8A4638356ABF}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="4980" windowWidth="28800" windowHeight="15375" xr2:uid="{2132B2E6-8037-4EA8-B9B7-9152243AD9ED}"/>
+    <workbookView xWindow="4740" yWindow="1560" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{2132B2E6-8037-4EA8-B9B7-9152243AD9ED}"/>
   </bookViews>
   <sheets>
-    <sheet name="Vinduer" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="AREAL" sheetId="2" r:id="rId1"/>
+    <sheet name="Vinduer" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
   <si>
     <t>1 Etasje</t>
   </si>
@@ -150,12 +150,6 @@
     <t>Length</t>
   </si>
   <si>
-    <t>Innvendig areal</t>
-  </si>
-  <si>
-    <t>2.2m Høyde</t>
-  </si>
-  <si>
     <t>Areal</t>
   </si>
   <si>
@@ -163,12 +157,61 @@
   </si>
   <si>
     <t>H3</t>
+  </si>
+  <si>
+    <t>OLD Length</t>
+  </si>
+  <si>
+    <t>Areal Old</t>
+  </si>
+  <si>
+    <t>Areal New</t>
+  </si>
+  <si>
+    <t>Length oLd</t>
+  </si>
+  <si>
+    <t>Height Old</t>
+  </si>
+  <si>
+    <t>Height New</t>
+  </si>
+  <si>
+    <t>Hjelpetall</t>
+  </si>
+  <si>
+    <t>OLD</t>
+  </si>
+  <si>
+    <t>My ID</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Skrå</t>
+  </si>
+  <si>
+    <t>Firkant</t>
+  </si>
+  <si>
+    <t>Dører</t>
+  </si>
+  <si>
+    <t>Fjerning av 1 ytterdør, i.e kun 1 ny ytterdør med 0.8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -198,7 +241,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -206,13 +249,159 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -235,14 +424,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>486063</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:colOff>505113</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>143134</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -266,7 +455,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="190500"/>
+          <a:off x="142875" y="0"/>
           <a:ext cx="2067213" cy="1857634"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -279,15 +468,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>857590</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228940</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>124127</xdr:rowOff>
+      <xdr:rowOff>86027</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -310,8 +499,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5010150"/>
+          <a:off x="257175" y="4972050"/>
           <a:ext cx="2438740" cy="2162477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600390</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>162235</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64657DE3-20F9-5D60-6D21-374AD2DCC795}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3248025" y="4991100"/>
+          <a:ext cx="2257740" cy="2219635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>324470</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152848</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4477CD84-90AA-A582-8829-CDF6873FB37B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6276975" y="4953000"/>
+          <a:ext cx="4439270" cy="3210373"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -623,567 +900,689 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D126A206-E1FC-4007-8343-B6231B26B32E}">
-  <dimension ref="A1:I19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09CE6680-08A9-459E-8A29-FC589C6B7651}">
+  <dimension ref="A11:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2">
-        <v>3.19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0.8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2">
-        <v>3.35</v>
-      </c>
-      <c r="G2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I2">
-        <f>F2*G2</f>
-        <v>3.6850000000000005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>1.32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0.8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3">
-        <v>1.4</v>
-      </c>
-      <c r="G3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I9" si="0">F3*G3</f>
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>1.32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0.8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.6</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>1.98</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0.8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5">
-        <v>1.2</v>
-      </c>
-      <c r="G5">
-        <v>1.2</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>1.32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0.8</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>1.98</v>
-      </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0.8</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>6.6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1.8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>1.9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>2.8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9">
-        <v>3.3149999999999999</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>6.63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>3.8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10">
-        <v>3.35</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <f>F10*G10</f>
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>2.6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>4.8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G11">
-        <v>1.54</v>
-      </c>
-      <c r="I11">
-        <f>F11*G11</f>
-        <v>3.5419999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G12">
-        <v>2.39</v>
-      </c>
-      <c r="H12">
-        <v>0.877</v>
-      </c>
-      <c r="I12">
-        <f>F12*H12+1/2*F12*(G12-H12)</f>
-        <v>3.7570499999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G13">
-        <v>2.39</v>
-      </c>
-      <c r="H13">
-        <v>0.877</v>
-      </c>
-      <c r="I13">
-        <f>F13*H13+1/2*F13*(G13-H13)</f>
-        <v>3.7570499999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <f>SUM(B2:B13)</f>
-        <v>27.11</v>
-      </c>
-      <c r="I14">
-        <f>SUM(I2:I13)</f>
-        <v>36.551099999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>1.17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>7.56</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>0.8</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09CE6680-08A9-459E-8A29-FC589C6B7651}">
-  <dimension ref="A12:G46"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="114" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>36</v>
       </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
       <c r="D12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="8">
+        <v>4.8789999999999996</v>
+      </c>
+      <c r="C13">
         <v>4.95</v>
       </c>
-      <c r="D13">
-        <f>(B19-2*0.2)*(B18-2*0.2)</f>
-        <v>84.239999999999981</v>
-      </c>
-      <c r="G13">
+      <c r="D13" s="2">
+        <f>C20*C19-C15*C14</f>
+        <v>89.584000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1.165</v>
+      </c>
+      <c r="C14">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="8">
+        <v>2.5390000000000001</v>
+      </c>
+      <c r="C15">
+        <v>1.8799999999999899</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="8">
+        <f>B14</f>
+        <v>1.165</v>
+      </c>
+      <c r="C16">
+        <v>1.2</v>
+      </c>
+      <c r="D16" s="2">
         <f>B20*B19-B15*B14</f>
-        <v>89.584000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+        <v>86.374544999999983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="8">
+        <v>3.6379999999999999</v>
+      </c>
+      <c r="C17">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="8">
+        <v>8.08</v>
+      </c>
+      <c r="C18">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="8">
+        <v>11.055999999999999</v>
+      </c>
+      <c r="C19">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="10">
+        <f>B18</f>
+        <v>8.08</v>
+      </c>
+      <c r="C20">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="8">
+        <v>3.4289999999999998</v>
+      </c>
+      <c r="C41">
+        <v>11.1</v>
+      </c>
+      <c r="D41">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B14">
-        <v>1.2</v>
-      </c>
-      <c r="D14">
-        <f>B14*(B15+2*0.2)</f>
-        <v>2.7359999999999878</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B42" s="8">
+        <v>3.222</v>
+      </c>
+      <c r="C42">
+        <v>5.9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B15">
-        <v>1.8799999999999899</v>
-      </c>
-      <c r="D15">
-        <f>D13-D14</f>
-        <v>81.503999999999991</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B43" s="8">
+        <v>1.45</v>
+      </c>
+      <c r="C43">
+        <v>6.4</v>
+      </c>
+      <c r="D43">
+        <f>C41*C46+C43*C44</f>
+        <v>54.21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B16">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B44" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="C44">
+        <v>2.4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B17">
-        <v>4.37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B45" s="8">
+        <v>1.9790000000000001</v>
+      </c>
+      <c r="C45">
+        <v>4.7</v>
+      </c>
+      <c r="D45">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B18">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41">
-        <v>11.1</v>
-      </c>
-      <c r="D41" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42">
-        <v>5.9</v>
-      </c>
-      <c r="D42">
+      <c r="B46" s="10">
+        <f>B42-B44</f>
+        <v>2.4219999999999997</v>
+      </c>
+      <c r="C46">
+        <v>3.5</v>
+      </c>
+      <c r="D46">
         <f>B41*B46+B43*B44</f>
-        <v>54.21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>30</v>
-      </c>
-      <c r="B43">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>32</v>
-      </c>
-      <c r="B45">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>33</v>
-      </c>
-      <c r="B46">
-        <v>3.5</v>
-      </c>
-      <c r="F46">
-        <f>G13+D42</f>
-        <v>143.79400000000001</v>
+        <v>9.4650379999999981</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D126A206-E1FC-4007-8343-B6231B26B32E}">
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4">
+        <f>H2*I2</f>
+        <v>3.6850000000000005</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="D2">
+        <v>3.19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2">
+        <v>3.35</v>
+      </c>
+      <c r="I2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4">
+        <f>H3*I3</f>
+        <v>1.54</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="D3">
+        <v>1.32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3">
+        <v>1.4</v>
+      </c>
+      <c r="I3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4">
+        <f>H4*I4</f>
+        <v>0.6</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="D4">
+        <v>1.32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4">
+        <f>H5*I5</f>
+        <v>1.44</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="D5">
+        <v>1.98</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5">
+        <v>1.2</v>
+      </c>
+      <c r="I5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4">
+        <f>H6*I6</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="D6">
+        <v>1.32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4">
+        <f>H7*I7</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="D7">
+        <v>1.98</v>
+      </c>
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4">
+        <f>H8*I8</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="D8">
+        <v>6.6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4">
+        <f>H9*I9</f>
+        <v>6.63</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="D9">
+        <v>1.9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9">
+        <v>3.3149999999999999</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4">
+        <f>H10*I10</f>
+        <v>6.7</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="D10">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10">
+        <v>3.35</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4">
+        <f>H11*I11</f>
+        <v>3.5419999999999998</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="D11">
+        <v>2.6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I11">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="4">
+        <f>H12*J12+1/2*H12*(I12-J12)</f>
+        <v>3.7570499999999996</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I12">
+        <v>2.39</v>
+      </c>
+      <c r="J12">
+        <v>0.877</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="12">
+        <f>H13*J13+1/2*H13*(I13-J13)</f>
+        <v>3.7570499999999996</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I13">
+        <v>2.39</v>
+      </c>
+      <c r="J13">
+        <v>0.877</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="3">
+        <f>SUM(B2:B13)</f>
+        <v>36.551099999999998</v>
+      </c>
+      <c r="D14">
+        <f>SUM(D2:D13)</f>
+        <v>27.11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4">
+        <f>1.21*0.85/2</f>
+        <v>0.51424999999999998</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17">
+        <v>1.17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="12">
+        <f>0.85*0.85</f>
+        <v>0.72249999999999992</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18">
+        <v>7.56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="3">
+        <f>SUM(E14:E16)</f>
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f>SUM(B14:B16)</f>
+        <v>36.551099999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>